--- a/Case Processing/DBvKG Comparison.xlsx
+++ b/Case Processing/DBvKG Comparison.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="9980" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="3440" yWindow="620" windowWidth="38820" windowHeight="19720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="4" r:id="rId1"/>
+    <sheet name="000001" sheetId="1" r:id="rId2"/>
+    <sheet name="000002" sheetId="2" r:id="rId3"/>
+    <sheet name="000003" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'000001'!$C$1:$C$212</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -483,10 +485,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6991,1067 +7005,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A210"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>